--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -10,12 +10,11 @@
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
-    <definedName function="false" hidden="false" name="RDcountry" vbProcedure="false">[1]SurveyBusinessPartner!$C$20:$C$69</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -748,6 +747,9 @@
     <t xml:space="preserve">Coca-Cola</t>
   </si>
   <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
   </si>
   <si>
@@ -811,10 +813,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every  TCC SKUs on Scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skus</t>
+    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1070,7 +1069,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1079,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1127,7 +1132,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1138,6 +1143,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1232,11 +1241,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,6 +1258,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1292,312 +1305,301 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:61"/>
+  <dimension ref="A1:AMG61"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.1983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1021" min="39" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.6477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.0728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.6882591093117"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.5910931174089"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2226720647773"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1021" min="39" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="13" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="11" t="n">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="11"/>
+      <c r="AL2" s="12"/>
       <c r="AMF2" s="1"/>
       <c r="AMG2" s="1"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="11" t="n">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="15" t="n">
+      <c r="AJ3" s="16" t="n">
         <v>301</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="AL3" s="11"/>
+      <c r="AL3" s="12"/>
       <c r="AM3" s="0"/>
       <c r="AN3" s="0"/>
       <c r="AO3" s="0"/>
@@ -2582,65 +2584,65 @@
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="11" t="n">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ4" s="16" t="n">
+      <c r="AJ4" s="17" t="n">
         <v>303</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="12" t="n">
         <v>301</v>
       </c>
       <c r="AM4" s="0"/>
@@ -3627,65 +3629,65 @@
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="11" t="n">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" s="16" t="n">
+      <c r="AJ5" s="17" t="n">
         <v>310</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AK5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="11"/>
+      <c r="AL5" s="12"/>
       <c r="AM5" s="0"/>
       <c r="AN5" s="0"/>
       <c r="AO5" s="0"/>
@@ -4670,65 +4672,65 @@
       <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="11" t="n">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="16" t="n">
+      <c r="AJ6" s="17" t="n">
         <v>311</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="8" t="n">
         <v>310</v>
       </c>
       <c r="AM6" s="0"/>
@@ -5715,65 +5717,65 @@
       <c r="AMF6" s="0"/>
       <c r="AMG6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="11" t="n">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ7" s="16" t="n">
+      <c r="AJ7" s="17" t="n">
         <v>312</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AK7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="12" t="n">
         <v>310</v>
       </c>
       <c r="AM7" s="0"/>
@@ -6760,69 +6762,69 @@
       <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="n">
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK8" s="18" t="s">
+      <c r="AK8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="7" t="n">
+      <c r="AL8" s="8" t="n">
         <v>300</v>
       </c>
       <c r="AM8" s="0"/>
@@ -7809,83 +7811,83 @@
       <c r="AMF8" s="0"/>
       <c r="AMG8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="20" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7" t="s">
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7" t="s">
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="21" t="n">
+      <c r="AD9" s="22" t="n">
         <v>0.021437</v>
       </c>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="n">
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7" t="n">
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM9" s="0"/>
@@ -8872,83 +8874,83 @@
       <c r="AMF9" s="0"/>
       <c r="AMG9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="n">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="20" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="7" t="s">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7" t="s">
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="21" t="n">
+      <c r="AD10" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="n">
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7" t="n">
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM10" s="0"/>
@@ -9935,83 +9937,83 @@
       <c r="AMF10" s="0"/>
       <c r="AMG10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="n">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="20" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7" t="s">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7" t="s">
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="21" t="n">
+      <c r="AD11" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="n">
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7" t="n">
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM11" s="0"/>
@@ -10998,83 +11000,83 @@
       <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="n">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="20" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="7" t="s">
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7" t="s">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7" t="s">
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="21" t="n">
+      <c r="AD12" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7" t="n">
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM12" s="0"/>
@@ -12061,83 +12063,83 @@
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="n">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="20" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="7" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7" t="s">
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7" t="s">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="21" t="n">
+      <c r="AD13" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="n">
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="n">
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM13" s="0"/>
@@ -13124,83 +13126,83 @@
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="n">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="20" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="s">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7" t="s">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7" t="s">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7" t="s">
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="21" t="n">
+      <c r="AD14" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7" t="n">
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM14" s="0"/>
@@ -14187,83 +14189,83 @@
       <c r="AMF14" s="0"/>
       <c r="AMG14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="n">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="20" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7" t="s">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7" t="s">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7" t="s">
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="21" t="n">
+      <c r="AD15" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="n">
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM15" s="0"/>
@@ -15250,81 +15252,81 @@
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="20" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7" t="s">
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="21" t="n">
+      <c r="AD16" s="22" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="n">
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM16" s="0"/>
@@ -16311,83 +16313,83 @@
       <c r="AMF16" s="0"/>
       <c r="AMG16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="20" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7" t="s">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7" t="s">
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7" t="s">
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="21" t="n">
+      <c r="AD17" s="22" t="n">
         <v>0.0100113</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7" t="n">
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM17" s="0"/>
@@ -17374,83 +17376,83 @@
       <c r="AMF17" s="0"/>
       <c r="AMG17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="20" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="7" t="s">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7" t="s">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7" t="s">
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7" t="s">
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="21" t="n">
+      <c r="AD18" s="22" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7" t="n">
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM18" s="0"/>
@@ -18437,83 +18439,83 @@
       <c r="AMF18" s="0"/>
       <c r="AMG18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="20" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7" t="s">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7" t="s">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7" t="s">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7" t="s">
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="21" t="n">
+      <c r="AD19" s="22" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="n">
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM19" s="0"/>
@@ -19500,241 +19502,235 @@
       <c r="AMF19" s="0"/>
       <c r="AMG19" s="0"/>
     </row>
-    <row r="20" s="13" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="n">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="20" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="8" t="s">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8" t="s">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8" t="s">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8" t="s">
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD20" s="21" t="n">
+      <c r="AD20" s="22" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8" t="n">
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8" t="n">
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AME20" s="1"/>
       <c r="AMF20" s="1"/>
       <c r="AMG20" s="1"/>
-      <c r="AMH20" s="0"/>
-      <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="13" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="n">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="20" t="s">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="8" t="s">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8" t="s">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8" t="s">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8" t="s">
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD21" s="21" t="n">
+      <c r="AD21" s="22" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8" t="n">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8" t="n">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AME21" s="1"/>
       <c r="AMF21" s="1"/>
       <c r="AMG21" s="1"/>
-      <c r="AMH21" s="0"/>
-      <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7" t="n">
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="AK22" s="18" t="n">
+      <c r="AK22" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="7" t="n">
+      <c r="AL22" s="8" t="n">
         <v>300</v>
       </c>
       <c r="AM22" s="0"/>
@@ -20721,83 +20717,83 @@
       <c r="AMF22" s="0"/>
       <c r="AMG22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="n">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="20" t="s">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7" t="s">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7" t="s">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7" t="s">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD23" s="21" t="n">
+      <c r="AD23" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7" t="n">
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8" t="n">
         <v>15</v>
       </c>
       <c r="AM23" s="0"/>
@@ -21784,69 +21780,69 @@
       <c r="AMF23" s="0"/>
       <c r="AMG23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7" t="n">
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AK24" s="18" t="s">
+      <c r="AK24" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="8" t="n">
         <v>300</v>
       </c>
       <c r="AM24" s="0"/>
@@ -22833,83 +22829,83 @@
       <c r="AMF24" s="0"/>
       <c r="AMG24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="n">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="20" t="s">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7" t="s">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7" t="s">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7" t="s">
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7" t="s">
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD25" s="21" t="n">
+      <c r="AD25" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="n">
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8" t="n">
         <v>17</v>
       </c>
       <c r="AM25" s="0"/>
@@ -23896,83 +23892,83 @@
       <c r="AMF25" s="0"/>
       <c r="AMG25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="20" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7" t="s">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7" t="s">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7" t="s">
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7" t="s">
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD26" s="21" t="n">
+      <c r="AD26" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7" t="n">
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8" t="n">
         <v>17</v>
       </c>
       <c r="AM26" s="0"/>
@@ -24959,69 +24955,69 @@
       <c r="AMF26" s="0"/>
       <c r="AMG26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7" t="s">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="n">
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="AK27" s="22" t="s">
+      <c r="AK27" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="8" t="n">
         <v>300</v>
       </c>
       <c r="AM27" s="0"/>
@@ -26008,169 +26004,166 @@
       <c r="AMF27" s="0"/>
       <c r="AMG27" s="0"/>
     </row>
-    <row r="28" s="13" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="n">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="20" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="8" t="s">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8" t="s">
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8" t="s">
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="21" t="n">
+      <c r="AD28" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8" t="n">
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8" t="n">
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AME28" s="1"/>
       <c r="AMF28" s="1"/>
       <c r="AMG28" s="1"/>
-      <c r="AMH28" s="0"/>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="n">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="20" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="8" t="s">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8" t="s">
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8" t="s">
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8" t="s">
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD29" s="21" t="n">
+      <c r="AD29" s="22" t="n">
         <v>0.0100073</v>
       </c>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8" t="n">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8" t="n">
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AM29" s="0"/>
@@ -27157,69 +27150,69 @@
       <c r="AMF29" s="0"/>
       <c r="AMG29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7" t="s">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7" t="n">
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AK30" s="22" t="s">
+      <c r="AK30" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="AL30" s="7" t="n">
+      <c r="AL30" s="8" t="n">
         <v>300</v>
       </c>
       <c r="AM30" s="0"/>
@@ -28206,83 +28199,83 @@
       <c r="AMF30" s="0"/>
       <c r="AMG30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="20" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7" t="s">
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7" t="s">
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD31" s="21" t="n">
+      <c r="AD31" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7" t="n">
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM31" s="0"/>
@@ -29269,83 +29262,83 @@
       <c r="AMF31" s="0"/>
       <c r="AMG31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="20" t="s">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7" t="s">
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7" t="s">
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7" t="s">
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" s="21" t="n">
+      <c r="AD32" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="n">
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7" t="n">
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM32" s="0"/>
@@ -30332,83 +30325,83 @@
       <c r="AMF32" s="0"/>
       <c r="AMG32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="20" t="s">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7" t="s">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7" t="s">
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7" t="s">
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" s="21" t="n">
+      <c r="AD33" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ33" s="7" t="n">
+      <c r="AJ33" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="n">
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM33" s="0"/>
@@ -31395,83 +31388,83 @@
       <c r="AMF33" s="0"/>
       <c r="AMG33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="n">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="20" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7" t="s">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7" t="s">
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7" t="s">
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD34" s="21" t="n">
+      <c r="AD34" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7" t="n">
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM34" s="0"/>
@@ -32458,83 +32451,83 @@
       <c r="AMF34" s="0"/>
       <c r="AMG34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="n">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="20" t="s">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7" t="s">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7" t="s">
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7" t="s">
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" s="21" t="n">
+      <c r="AD35" s="22" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="n">
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AJ35" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7" t="n">
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM35" s="0"/>
@@ -33521,83 +33514,83 @@
       <c r="AMF35" s="0"/>
       <c r="AMG35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="n">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="20" t="s">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7" t="s">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7" t="s">
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7" t="s">
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7" t="s">
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" s="21" t="n">
+      <c r="AD36" s="22" t="n">
         <v>0.0100073</v>
       </c>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="n">
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7" t="n">
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM36" s="0"/>
@@ -34584,167 +34577,164 @@
       <c r="AMF36" s="0"/>
       <c r="AMG36" s="0"/>
     </row>
-    <row r="37" s="13" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8" t="n">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="20" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="8" t="s">
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="R37" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8" t="s">
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8" t="s">
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8" t="s">
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD37" s="21" t="n">
+      <c r="AD37" s="22" t="n">
         <v>0.0100073</v>
       </c>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="7" t="n">
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="8" t="n">
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="9" t="n">
         <v>23</v>
       </c>
       <c r="AME37" s="1"/>
       <c r="AMF37" s="1"/>
       <c r="AMG37" s="1"/>
-      <c r="AMH37" s="0"/>
-      <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="20" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7" t="s">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7" t="s">
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7" t="s">
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7" t="s">
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD38" s="21" t="n">
+      <c r="AD38" s="22" t="n">
         <v>0.0099844</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7" t="n">
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7" t="n">
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM38" s="0"/>
@@ -35731,77 +35721,79 @@
       <c r="AMF38" s="0"/>
       <c r="AMG38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="n">
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="7" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7" t="s">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7" t="s">
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD39" s="25" t="n">
+      <c r="AD39" s="26" t="n">
         <v>0.15</v>
       </c>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="n">
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ39" s="7" t="n">
+      <c r="AJ39" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="AK39" s="18" t="s">
+      <c r="AK39" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AL39" s="26"/>
+      <c r="AL39" s="27" t="n">
+        <v>303</v>
+      </c>
       <c r="AM39" s="0"/>
       <c r="AN39" s="0"/>
       <c r="AO39" s="0"/>
@@ -36786,81 +36778,81 @@
       <c r="AMF39" s="0"/>
       <c r="AMG39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="n">
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="7" t="s">
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7" t="s">
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7" t="s">
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD40" s="25" t="n">
+      <c r="AD40" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7" t="n">
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ40" s="7" t="n">
+      <c r="AJ40" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="n">
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8" t="n">
         <v>32</v>
       </c>
       <c r="AM40" s="0"/>
@@ -37847,77 +37839,77 @@
       <c r="AMF40" s="0"/>
       <c r="AMG40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="7" t="s">
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7" t="s">
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7" t="s">
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD41" s="25" t="n">
+      <c r="AD41" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7" t="n">
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ41" s="7" t="n">
+      <c r="AJ41" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AK41" s="18" t="s">
+      <c r="AK41" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AL41" s="7" t="n">
+      <c r="AL41" s="8" t="n">
         <v>32</v>
       </c>
       <c r="AM41" s="0"/>
@@ -38904,81 +38896,81 @@
       <c r="AMF41" s="0"/>
       <c r="AMG41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N42" s="15" t="n">
+      <c r="N42" s="16" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="7" t="s">
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7" t="s">
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7" t="s">
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD42" s="25" t="n">
+      <c r="AD42" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7" t="s">
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AI42" s="7" t="n">
+      <c r="AI42" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AJ42" s="7" t="n">
+      <c r="AJ42" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7" t="n">
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8" t="n">
         <v>34</v>
       </c>
       <c r="AM42" s="0"/>
@@ -39965,81 +39957,81 @@
       <c r="AMF42" s="0"/>
       <c r="AMG42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="7" t="s">
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R43" s="7" t="s">
+      <c r="R43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7" t="s">
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7" t="s">
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD43" s="25" t="n">
+      <c r="AD43" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7" t="s">
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="AI43" s="7" t="n">
+      <c r="AI43" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AJ43" s="7" t="n">
+      <c r="AJ43" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="n">
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8" t="n">
         <v>34</v>
       </c>
       <c r="AM43" s="0"/>
@@ -41026,75 +41018,75 @@
       <c r="AMF43" s="0"/>
       <c r="AMG43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="7" t="s">
+      <c r="I44" s="8"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7" t="s">
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AD44" s="25" t="n">
+      <c r="AD44" s="26" t="n">
         <v>0.24</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7" t="s">
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AI44" s="7" t="n">
+      <c r="AI44" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ44" s="7" t="n">
+      <c r="AJ44" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AK44" s="18" t="s">
+      <c r="AK44" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="AL44" s="16" t="n">
+      <c r="AL44" s="17" t="n">
         <v>311</v>
       </c>
       <c r="AM44" s="0"/>
@@ -42081,87 +42073,87 @@
       <c r="AMF44" s="0"/>
       <c r="AMG44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="n">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
+      <c r="L45" s="8"/>
+      <c r="M45" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N45" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7" t="s">
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7" t="s">
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7" t="s">
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD45" s="25" t="n">
+      <c r="AD45" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7" t="s">
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="AH45" s="7" t="s">
+      <c r="AH45" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="AI45" s="7" t="n">
+      <c r="AI45" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ45" s="7" t="n">
+      <c r="AJ45" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="n">
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AM45" s="0"/>
@@ -43148,87 +43140,87 @@
       <c r="AMF45" s="0"/>
       <c r="AMG45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7" t="n">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="K46" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
+      <c r="L46" s="8"/>
+      <c r="M46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N46" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7" t="s">
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7" t="s">
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="X46" s="7" t="s">
+      <c r="X46" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7" t="s">
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD46" s="25" t="n">
+      <c r="AD46" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7" t="s">
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="AH46" s="7" t="s">
+      <c r="AH46" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="AI46" s="7" t="n">
+      <c r="AI46" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ46" s="7" t="n">
+      <c r="AJ46" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AK46" s="7"/>
-      <c r="AL46" s="7" t="n">
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AM46" s="0"/>
@@ -44215,79 +44207,79 @@
       <c r="AMF46" s="0"/>
       <c r="AMG46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7" t="n">
+      <c r="I47" s="8"/>
+      <c r="J47" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7" t="s">
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7" t="s">
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7" t="s">
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD47" s="25" t="n">
+      <c r="AD47" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7" t="n">
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ47" s="7" t="n">
+      <c r="AJ47" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AM47" s="0"/>
@@ -45274,84 +45266,84 @@
       <c r="AMF47" s="0"/>
       <c r="AMG47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="7" t="n">
+      <c r="I48" s="20"/>
+      <c r="J48" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7" t="s">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7" t="s">
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7" t="s">
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="X48" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7" t="s">
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD48" s="25" t="n">
+      <c r="AD48" s="26" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7" t="s">
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AH48" s="7" t="s">
+      <c r="AH48" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AI48" s="7" t="n">
+      <c r="AI48" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ48" s="7" t="n">
+      <c r="AJ48" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="27" t="n">
-        <v>50</v>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="28" t="n">
+        <v>312</v>
       </c>
       <c r="AM48" s="0"/>
       <c r="AN48" s="0"/>
@@ -46337,86 +46329,86 @@
       <c r="AMF48" s="0"/>
       <c r="AMG48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7" t="n">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="L49" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="M49" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="N49" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7" t="s">
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7" t="s">
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7" t="s">
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="25" t="n">
+      <c r="AD49" s="26" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="7" t="s">
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AH49" s="7" t="s">
+      <c r="AH49" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AI49" s="7" t="n">
+      <c r="AI49" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ49" s="7" t="n">
+      <c r="AJ49" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="27" t="n">
-        <v>50</v>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="28" t="n">
+        <v>312</v>
       </c>
       <c r="AM49" s="0"/>
       <c r="AN49" s="0"/>
@@ -47402,84 +47394,84 @@
       <c r="AMF49" s="0"/>
       <c r="AMG49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="7" t="s">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7" t="s">
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7" t="s">
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="AD50" s="25" t="n">
+      <c r="AD50" s="26" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE50" s="7" t="n">
+      <c r="AE50" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AF50" s="7" t="n">
+      <c r="AF50" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AG50" s="7" t="s">
+      <c r="AG50" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AH50" s="7" t="s">
+      <c r="AH50" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AI50" s="7" t="n">
+      <c r="AI50" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ50" s="7" t="n">
+      <c r="AJ50" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AK50" s="22" t="s">
+      <c r="AK50" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="AL50" s="27" t="n">
-        <v>50</v>
+      <c r="AL50" s="28" t="n">
+        <v>312</v>
       </c>
       <c r="AM50" s="0"/>
       <c r="AN50" s="0"/>
@@ -48465,841 +48457,830 @@
       <c r="AMF50" s="0"/>
       <c r="AMG50" s="0"/>
     </row>
-    <row r="51" s="13" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+    <row r="51" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="8" t="s">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8" t="s">
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8" t="s">
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD51" s="29" t="n">
+      <c r="AD51" s="30" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8" t="s">
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8" t="n">
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ51" s="7" t="n">
+      <c r="AJ51" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="AK51" s="8" t="n">
+      <c r="AK51" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AL51" s="8" t="n">
+      <c r="AL51" s="9" t="n">
         <v>42</v>
       </c>
       <c r="AME51" s="1"/>
       <c r="AMF51" s="1"/>
       <c r="AMG51" s="1"/>
-      <c r="AMH51" s="0"/>
-      <c r="AMI51" s="0"/>
-      <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8" t="n">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11" t="s">
+      <c r="O52" s="12"/>
+      <c r="P52" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8" t="s">
+      <c r="R52" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="X52" s="7" t="s">
+      <c r="X52" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD52" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ52" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD53" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ53" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK53" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL53" s="9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R54" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD52" s="31" t="n">
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="X54" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD54" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8" t="n">
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AJ52" s="7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8" t="n">
-        <v>43</v>
+      <c r="AJ54" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9" t="n">
+        <v>45</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="X55" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD55" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ55" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B53" s="7" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8" t="n">
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R56" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD53" s="31" t="n">
+      <c r="X56" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD56" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8" t="n">
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ53" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK53" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL53" s="8" t="n">
+      <c r="AJ56" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="X54" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD54" s="31" t="n">
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD57" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH54" s="8"/>
-      <c r="AI54" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ54" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="8" t="n">
-        <v>45</v>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH57" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI57" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ57" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="28" t="n">
+        <v>312</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q55" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8" t="s">
+      <c r="D58" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK58" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="X55" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC55" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD55" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ55" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8" t="n">
-        <v>45</v>
-      </c>
+      <c r="X59" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="X56" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD56" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH56" s="8"/>
-      <c r="AI56" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ56" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK56" s="8"/>
-      <c r="AL56" s="8" t="n">
-        <v>42</v>
-      </c>
+      <c r="D60" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="B57" s="7" t="s">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD57" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH57" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI57" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ57" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="27" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="D61" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-      <c r="AC58" s="8"/>
-      <c r="AD58" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="8"/>
-      <c r="AF58" s="8"/>
-      <c r="AG58" s="8"/>
-      <c r="AH58" s="8"/>
-      <c r="AI58" s="8"/>
-      <c r="AJ58" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK58" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8" t="s">
+      <c r="E61" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="X59" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="8"/>
-      <c r="AF59" s="8"/>
-      <c r="AG59" s="8"/>
-      <c r="AH59" s="8"/>
-      <c r="AI59" s="8"/>
-      <c r="AJ59" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK59" s="8"/>
-      <c r="AL59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="8"/>
-      <c r="AJ60" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="n">
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="8"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="8"/>
-      <c r="AJ61" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="AK61" s="8"/>
-      <c r="AL61" s="8"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL61"/>
+  <autoFilter ref="A1:AL67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,11 +19,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="277">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -705,6 +707,9 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
+    <t xml:space="preserve">DUMMY</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
   </si>
   <si>
@@ -1074,8 +1079,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1308,7 +1313,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1321,7 +1326,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1347,44 +1352,44 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="2" sqref="F53:G55 G58 G2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.2712550607287"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.1619433198381"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -43507,7 +43512,9 @@
       <c r="H49" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="n">
         <v>1</v>
@@ -43551,7 +43558,7 @@
         <v>185</v>
       </c>
       <c r="AH49" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI49" s="9" t="n">
         <v>2</v>
@@ -44566,10 +44573,10 @@
         <v>202</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>58</v>
@@ -44583,7 +44590,7 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
@@ -44599,7 +44606,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD50" s="21" t="n">
         <v>0.04</v>
@@ -44614,7 +44621,7 @@
         <v>185</v>
       </c>
       <c r="AH50" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI50" s="9" t="n">
         <v>2</v>
@@ -44623,7 +44630,7 @@
         <v>42</v>
       </c>
       <c r="AK50" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL50" s="25" t="n">
         <v>312</v>
@@ -45629,10 +45636,10 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>58</v>
@@ -45668,7 +45675,7 @@
       <c r="AE51" s="27"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH51" s="9"/>
       <c r="AI51" s="9" t="n">
@@ -45703,13 +45710,13 @@
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9" t="n">
@@ -45718,20 +45725,20 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R52" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -45741,20 +45748,20 @@
         <v>191</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD52" s="11"/>
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AH52" s="9"/>
       <c r="AI52" s="9" t="n">
@@ -45783,10 +45790,10 @@
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>158</v>
@@ -45802,7 +45809,7 @@
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
@@ -45818,13 +45825,13 @@
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD53" s="11"/>
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AH53" s="9"/>
       <c r="AI53" s="9" t="n">
@@ -45834,7 +45841,7 @@
         <v>45</v>
       </c>
       <c r="AK53" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL53" s="9" t="n">
         <v>42</v>
@@ -45855,10 +45862,10 @@
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>62</v>
@@ -45870,20 +45877,20 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R54" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -45893,13 +45900,13 @@
         <v>191</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC54" s="9" t="s">
         <v>68</v>
@@ -45908,7 +45915,7 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH54" s="9"/>
       <c r="AI54" s="9" t="n">
@@ -45937,10 +45944,10 @@
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>62</v>
@@ -45952,20 +45959,20 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R55" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
@@ -45975,13 +45982,13 @@
         <v>191</v>
       </c>
       <c r="X55" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC55" s="9" t="s">
         <v>68</v>
@@ -45990,7 +45997,7 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH55" s="9"/>
       <c r="AI55" s="9" t="n">
@@ -46019,15 +46026,17 @@
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="I56" s="9"/>
+        <v>211</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>246</v>
+      </c>
       <c r="J56" s="9" t="n">
         <v>2</v>
       </c>
@@ -46055,7 +46064,7 @@
         <v>191</v>
       </c>
       <c r="X56" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -46068,7 +46077,7 @@
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AH56" s="9"/>
       <c r="AI56" s="9" t="n">
@@ -46099,13 +46108,13 @@
         <v>202</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -46145,7 +46154,7 @@
         <v>185</v>
       </c>
       <c r="AH57" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI57" s="9" t="n">
         <v>2</v>
@@ -46169,22 +46178,22 @@
         <v>39</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -46195,7 +46204,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -46218,7 +46227,7 @@
         <v>50</v>
       </c>
       <c r="AK58" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL58" s="9"/>
     </row>
@@ -46233,35 +46242,35 @@
         <v>39</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -46271,7 +46280,7 @@
         <v>191</v>
       </c>
       <c r="X59" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -46301,35 +46310,35 @@
         <v>39</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
@@ -46337,7 +46346,7 @@
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -46367,35 +46376,35 @@
         <v>39</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
@@ -46403,7 +46412,7 @@
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="277">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">number of facings</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000054227</t>
+    <t xml:space="preserve">5449000054227, 5449000228970</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Фанта Апельсин - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000006271</t>
+    <t xml:space="preserve">5449000006271, 5449000006271</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 1L</t>
@@ -288,7 +288,7 @@
     <t xml:space="preserve">Спрайт - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000050939</t>
+    <t xml:space="preserve">5449000050939, 5449000228956</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.5L</t>
@@ -422,10 +422,13 @@
 22</t>
   </si>
   <si>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000193124, 5449000259455</t>
@@ -694,10 +697,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -813,7 +813,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1053,8 +1053,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1072,7 +1072,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1119,7 +1119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1196,6 +1196,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1269,7 +1273,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1280,7 +1284,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1316,54 +1320,54 @@
   <dimension ref="A1:AMF61"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.2672064777328"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1486,7 @@
       <c r="AME1" s="6"/>
       <c r="AMF1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>56</v>
       </c>
@@ -1545,7 +1549,7 @@
       <c r="AME2" s="13"/>
       <c r="AMF2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>58</v>
       </c>
@@ -1608,7 +1612,7 @@
       <c r="AME3" s="6"/>
       <c r="AMF3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>62</v>
       </c>
@@ -1673,7 +1677,7 @@
       <c r="AME4" s="6"/>
       <c r="AMF4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>64</v>
       </c>
@@ -1736,7 +1740,7 @@
       <c r="AME5" s="6"/>
       <c r="AMF5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>66</v>
       </c>
@@ -1801,7 +1805,7 @@
       <c r="AME6" s="6"/>
       <c r="AMF6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>68</v>
       </c>
@@ -1866,7 +1870,7 @@
       <c r="AME7" s="6"/>
       <c r="AMF7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -1935,7 +1939,7 @@
       <c r="AME8" s="6"/>
       <c r="AMF8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -1969,7 +1973,7 @@
       <c r="M9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="19" t="s">
         <v>63</v>
       </c>
       <c r="O9" s="11"/>
@@ -1997,7 +2001,7 @@
       <c r="AC9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="19" t="n">
+      <c r="AD9" s="20" t="n">
         <v>0.021437</v>
       </c>
       <c r="AE9" s="7"/>
@@ -2018,7 +2022,7 @@
       <c r="AME9" s="6"/>
       <c r="AMF9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -2080,7 +2084,7 @@
       <c r="AC10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="19" t="n">
+      <c r="AD10" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE10" s="7"/>
@@ -2101,7 +2105,7 @@
       <c r="AME10" s="6"/>
       <c r="AMF10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -2163,7 +2167,7 @@
       <c r="AC11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="19" t="n">
+      <c r="AD11" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE11" s="7"/>
@@ -2184,7 +2188,7 @@
       <c r="AME11" s="6"/>
       <c r="AMF11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>5</v>
       </c>
@@ -2218,7 +2222,7 @@
       <c r="M12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="19" t="s">
         <v>77</v>
       </c>
       <c r="O12" s="11"/>
@@ -2246,7 +2250,7 @@
       <c r="AC12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="19" t="n">
+      <c r="AD12" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE12" s="7"/>
@@ -2267,7 +2271,7 @@
       <c r="AME12" s="6"/>
       <c r="AMF12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
@@ -2301,7 +2305,7 @@
       <c r="M13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="19" t="s">
         <v>80</v>
       </c>
       <c r="O13" s="11"/>
@@ -2329,7 +2333,7 @@
       <c r="AC13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="19" t="n">
+      <c r="AD13" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE13" s="7"/>
@@ -2350,7 +2354,7 @@
       <c r="AME13" s="6"/>
       <c r="AMF13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>7</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="AC14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="19" t="n">
+      <c r="AD14" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE14" s="7"/>
@@ -2433,7 +2437,7 @@
       <c r="AME14" s="6"/>
       <c r="AMF14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
@@ -2495,7 +2499,7 @@
       <c r="AC15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="19" t="n">
+      <c r="AD15" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE15" s="7"/>
@@ -2516,7 +2520,7 @@
       <c r="AME15" s="6"/>
       <c r="AMF15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>9</v>
       </c>
@@ -2576,7 +2580,7 @@
       <c r="AC16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="19" t="n">
+      <c r="AD16" s="20" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE16" s="7"/>
@@ -2597,7 +2601,7 @@
       <c r="AME16" s="6"/>
       <c r="AMF16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>10</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="AC17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="19" t="n">
+      <c r="AD17" s="20" t="n">
         <v>0.010011</v>
       </c>
       <c r="AE17" s="7"/>
@@ -2680,7 +2684,7 @@
       <c r="AME17" s="6"/>
       <c r="AMF17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>11</v>
       </c>
@@ -2742,7 +2746,7 @@
       <c r="AC18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="19" t="n">
+      <c r="AD18" s="20" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE18" s="7"/>
@@ -2763,7 +2767,7 @@
       <c r="AME18" s="6"/>
       <c r="AMF18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>12</v>
       </c>
@@ -2825,7 +2829,7 @@
       <c r="AC19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="19" t="n">
+      <c r="AD19" s="20" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE19" s="7"/>
@@ -2846,7 +2850,7 @@
       <c r="AME19" s="6"/>
       <c r="AMF19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>13</v>
       </c>
@@ -2908,7 +2912,7 @@
       <c r="AC20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD20" s="19" t="n">
+      <c r="AD20" s="20" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE20" s="7"/>
@@ -2929,7 +2933,7 @@
       <c r="AME20" s="13"/>
       <c r="AMF20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>14</v>
       </c>
@@ -2991,7 +2995,7 @@
       <c r="AC21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD21" s="19" t="n">
+      <c r="AD21" s="20" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE21" s="7"/>
@@ -3012,7 +3016,7 @@
       <c r="AME21" s="6"/>
       <c r="AMF21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>15</v>
       </c>
@@ -3081,7 +3085,7 @@
       <c r="AME22" s="6"/>
       <c r="AMF22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>16</v>
       </c>
@@ -3143,7 +3147,7 @@
       <c r="AC23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD23" s="19" t="n">
+      <c r="AD23" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE23" s="7"/>
@@ -3164,7 +3168,7 @@
       <c r="AME23" s="6"/>
       <c r="AMF23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>17</v>
       </c>
@@ -3233,7 +3237,7 @@
       <c r="AME24" s="6"/>
       <c r="AMF24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>18</v>
       </c>
@@ -3295,7 +3299,7 @@
       <c r="AC25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD25" s="19" t="n">
+      <c r="AD25" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE25" s="7"/>
@@ -3316,7 +3320,7 @@
       <c r="AME25" s="6"/>
       <c r="AMF25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>19</v>
       </c>
@@ -3378,7 +3382,7 @@
       <c r="AC26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD26" s="19" t="n">
+      <c r="AD26" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE26" s="7"/>
@@ -3399,7 +3403,7 @@
       <c r="AME26" s="6"/>
       <c r="AMF26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>20</v>
       </c>
@@ -3468,7 +3472,7 @@
       <c r="AME27" s="6"/>
       <c r="AMF27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>21</v>
       </c>
@@ -3500,10 +3504,10 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="20" t="s">
         <v>126</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -3530,7 +3534,7 @@
       <c r="AC28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="19" t="n">
+      <c r="AD28" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE28" s="7"/>
@@ -3551,7 +3555,7 @@
       <c r="AME28" s="13"/>
       <c r="AMF28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>22</v>
       </c>
@@ -3568,10 +3572,10 @@
         <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>62</v>
@@ -3583,10 +3587,10 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -3613,7 +3617,7 @@
       <c r="AC29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD29" s="19" t="n">
+      <c r="AD29" s="20" t="n">
         <v>0.010007</v>
       </c>
       <c r="AE29" s="7"/>
@@ -3634,7 +3638,7 @@
       <c r="AME29" s="6"/>
       <c r="AMF29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>23</v>
       </c>
@@ -3651,10 +3655,10 @@
         <v>106</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3694,7 +3698,7 @@
         <v>23</v>
       </c>
       <c r="AK30" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL30" s="7" t="n">
         <v>300</v>
@@ -3703,7 +3707,7 @@
       <c r="AME30" s="6"/>
       <c r="AMF30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>24</v>
       </c>
@@ -3720,10 +3724,10 @@
         <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>62</v>
@@ -3735,10 +3739,10 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -3765,7 +3769,7 @@
       <c r="AC31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD31" s="19" t="n">
+      <c r="AD31" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE31" s="7"/>
@@ -3786,7 +3790,7 @@
       <c r="AME31" s="6"/>
       <c r="AMF31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>25</v>
       </c>
@@ -3803,10 +3807,10 @@
         <v>106</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>62</v>
@@ -3818,10 +3822,10 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -3848,7 +3852,7 @@
       <c r="AC32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" s="19" t="n">
+      <c r="AD32" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE32" s="7"/>
@@ -3869,7 +3873,7 @@
       <c r="AME32" s="6"/>
       <c r="AMF32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>26</v>
       </c>
@@ -3886,10 +3890,10 @@
         <v>106</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>62</v>
@@ -3901,10 +3905,10 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -3931,7 +3935,7 @@
       <c r="AC33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" s="19" t="n">
+      <c r="AD33" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE33" s="7"/>
@@ -3952,7 +3956,7 @@
       <c r="AME33" s="6"/>
       <c r="AMF33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>27</v>
       </c>
@@ -3969,10 +3973,10 @@
         <v>106</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>62</v>
@@ -3984,10 +3988,10 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -4014,7 +4018,7 @@
       <c r="AC34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD34" s="19" t="n">
+      <c r="AD34" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE34" s="7"/>
@@ -4035,7 +4039,7 @@
       <c r="AME34" s="6"/>
       <c r="AMF34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>28</v>
       </c>
@@ -4052,10 +4056,10 @@
         <v>106</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>62</v>
@@ -4067,10 +4071,10 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -4097,7 +4101,7 @@
       <c r="AC35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" s="19" t="n">
+      <c r="AD35" s="20" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE35" s="7"/>
@@ -4118,7 +4122,7 @@
       <c r="AME35" s="6"/>
       <c r="AMF35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>29</v>
       </c>
@@ -4135,10 +4139,10 @@
         <v>106</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>62</v>
@@ -4150,10 +4154,10 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -4180,7 +4184,7 @@
       <c r="AC36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" s="19" t="n">
+      <c r="AD36" s="20" t="n">
         <v>0.010007</v>
       </c>
       <c r="AE36" s="7"/>
@@ -4201,7 +4205,7 @@
       <c r="AME36" s="6"/>
       <c r="AMF36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>30</v>
       </c>
@@ -4218,10 +4222,10 @@
         <v>106</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>62</v>
@@ -4233,10 +4237,10 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -4263,7 +4267,7 @@
       <c r="AC37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD37" s="19" t="n">
+      <c r="AD37" s="20" t="n">
         <v>0.010007</v>
       </c>
       <c r="AE37" s="17"/>
@@ -4284,7 +4288,7 @@
       <c r="AME37" s="13"/>
       <c r="AMF37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>31</v>
       </c>
@@ -4301,10 +4305,10 @@
         <v>106</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>62</v>
@@ -4316,10 +4320,10 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4346,7 +4350,7 @@
       <c r="AC38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD38" s="19" t="n">
+      <c r="AD38" s="20" t="n">
         <v>0.009987</v>
       </c>
       <c r="AE38" s="7"/>
@@ -4367,7 +4371,7 @@
       <c r="AME38" s="6"/>
       <c r="AMF38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>32</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>45</v>
@@ -4390,7 +4394,7 @@
         <v>46</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="n">
@@ -4408,10 +4412,10 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="21"/>
+      <c r="U39" s="22"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -4421,7 +4425,7 @@
       <c r="AC39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD39" s="19" t="n">
+      <c r="AD39" s="20" t="n">
         <v>0.15</v>
       </c>
       <c r="AE39" s="7"/>
@@ -4435,16 +4439,16 @@
         <v>32</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL39" s="22" t="n">
+        <v>161</v>
+      </c>
+      <c r="AL39" s="23" t="n">
         <v>303</v>
       </c>
       <c r="AMD39" s="6"/>
       <c r="AME39" s="6"/>
       <c r="AMF39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>33</v>
       </c>
@@ -4458,13 +4462,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>62</v>
@@ -4476,10 +4480,10 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -4487,14 +4491,14 @@
         <v>64</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="21"/>
+      <c r="U40" s="22"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -4523,7 +4527,7 @@
       <c r="AME40" s="6"/>
       <c r="AMF40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>34</v>
       </c>
@@ -4537,16 +4541,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="n">
@@ -4564,10 +4568,10 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="21"/>
+      <c r="U41" s="22"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -4589,7 +4593,7 @@
         <v>34</v>
       </c>
       <c r="AK41" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL41" s="7" t="n">
         <v>32</v>
@@ -4598,7 +4602,7 @@
       <c r="AME41" s="6"/>
       <c r="AMF41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>35</v>
       </c>
@@ -4612,23 +4616,23 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N42" s="11" t="n">
         <v>4607042434877</v>
@@ -4643,10 +4647,10 @@
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
-      <c r="U42" s="21"/>
+      <c r="U42" s="22"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -4661,7 +4665,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AI42" s="7" t="n">
         <v>4</v>
@@ -4677,7 +4681,7 @@
       <c r="AME42" s="6"/>
       <c r="AMF42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>35</v>
       </c>
@@ -4691,26 +4695,26 @@
         <v>40</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -4722,10 +4726,10 @@
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="21"/>
+      <c r="U43" s="22"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -4740,7 +4744,7 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI43" s="7" t="n">
         <v>4</v>
@@ -4756,7 +4760,7 @@
       <c r="AME43" s="6"/>
       <c r="AMF43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>36</v>
       </c>
@@ -4770,16 +4774,16 @@
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="17"/>
@@ -4790,7 +4794,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -4804,16 +4808,16 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD44" s="19" t="n">
+        <v>183</v>
+      </c>
+      <c r="AD44" s="20" t="n">
         <v>0.24</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI44" s="7" t="n">
         <v>2</v>
@@ -4822,7 +4826,7 @@
         <v>36</v>
       </c>
       <c r="AK44" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL44" s="15" t="n">
         <v>311</v>
@@ -4831,7 +4835,7 @@
       <c r="AME44" s="6"/>
       <c r="AMF44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>37</v>
       </c>
@@ -4845,16 +4849,16 @@
         <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="n">
@@ -4865,27 +4869,27 @@
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
@@ -4897,10 +4901,10 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH45" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI45" s="7" t="n">
         <v>3</v>
@@ -4916,7 +4920,7 @@
       <c r="AME45" s="6"/>
       <c r="AMF45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>38</v>
       </c>
@@ -4930,16 +4934,16 @@
         <v>40</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="n">
@@ -4950,26 +4954,26 @@
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -4982,10 +4986,10 @@
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH46" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI46" s="7" t="n">
         <v>3</v>
@@ -5001,7 +5005,7 @@
       <c r="AME46" s="6"/>
       <c r="AMF46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>39</v>
       </c>
@@ -5015,16 +5019,16 @@
         <v>40</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="n">
@@ -5033,23 +5037,23 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -5078,7 +5082,7 @@
       <c r="AME47" s="6"/>
       <c r="AMF47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>40</v>
       </c>
@@ -5092,16 +5096,16 @@
         <v>40</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="7" t="n">
@@ -5111,13 +5115,13 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -5127,7 +5131,7 @@
         <v>90</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -5136,16 +5140,16 @@
       <c r="AC48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD48" s="19" t="n">
+      <c r="AD48" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH48" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AI48" s="7" t="n">
         <v>2</v>
@@ -5154,14 +5158,14 @@
         <v>40</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="23" t="n">
+      <c r="AL48" s="24" t="n">
         <v>312</v>
       </c>
       <c r="AMD48" s="6"/>
       <c r="AME48" s="6"/>
       <c r="AMF48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>41</v>
       </c>
@@ -5175,20 +5179,18 @@
         <v>40</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H49" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="H49" s="25" t="s">
         <v>212</v>
       </c>
+      <c r="I49" s="17"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7" t="n">
         <v>1</v>
@@ -5197,25 +5199,27 @@
         <v>15</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="R49" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
@@ -5223,13 +5227,13 @@
       <c r="AC49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="19" t="n">
+      <c r="AD49" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH49" s="7" t="s">
         <v>213</v>
@@ -5241,14 +5245,14 @@
         <v>41</v>
       </c>
       <c r="AK49" s="7"/>
-      <c r="AL49" s="23" t="n">
+      <c r="AL49" s="24" t="n">
         <v>312</v>
       </c>
       <c r="AMD49" s="6"/>
       <c r="AME49" s="6"/>
       <c r="AMF49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>42</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>40</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>214</v>
@@ -5273,7 +5277,7 @@
       <c r="H50" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -5290,7 +5294,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -5300,7 +5304,7 @@
       <c r="AC50" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="AD50" s="19" t="n">
+      <c r="AD50" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE50" s="7" t="n">
@@ -5310,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="AG50" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH50" s="7" t="s">
         <v>218</v>
@@ -5324,14 +5328,14 @@
       <c r="AK50" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="AL50" s="23" t="n">
+      <c r="AL50" s="24" t="n">
         <v>312</v>
       </c>
       <c r="AMD50" s="6"/>
       <c r="AME50" s="6"/>
       <c r="AMF50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>43</v>
       </c>
@@ -5354,7 +5358,7 @@
       <c r="H51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -5371,7 +5375,7 @@
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
@@ -5382,7 +5386,7 @@
         <v>68</v>
       </c>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="25"/>
+      <c r="AE51" s="26"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7" t="s">
         <v>222</v>
@@ -5404,7 +5408,7 @@
       <c r="AME51" s="13"/>
       <c r="AMF51" s="13"/>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>44</v>
       </c>
@@ -5427,7 +5431,7 @@
       <c r="H52" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="7"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="7" t="n">
         <v>0.4</v>
       </c>
@@ -5446,7 +5450,7 @@
       <c r="Q52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R52" s="26" t="s">
+      <c r="R52" s="27" t="s">
         <v>228</v>
       </c>
       <c r="S52" s="7"/>
@@ -5454,7 +5458,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X52" s="7" t="s">
         <v>229</v>
@@ -5484,7 +5488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>45</v>
       </c>
@@ -5505,9 +5509,9 @@
         <v>232</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I53" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="I53" s="17"/>
       <c r="J53" s="7" t="n">
         <v>2</v>
       </c>
@@ -5526,7 +5530,7 @@
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
@@ -5556,7 +5560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>46</v>
       </c>
@@ -5579,7 +5583,7 @@
       <c r="H54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="7"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="7" t="n">
         <v>4</v>
       </c>
@@ -5598,7 +5602,7 @@
       <c r="Q54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R54" s="26" t="s">
+      <c r="R54" s="27" t="s">
         <v>228</v>
       </c>
       <c r="S54" s="7"/>
@@ -5606,7 +5610,7 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X54" s="16" t="s">
         <v>237</v>
@@ -5638,7 +5642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>47</v>
       </c>
@@ -5661,7 +5665,7 @@
       <c r="H55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="7"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="7" t="n">
         <v>4</v>
       </c>
@@ -5680,7 +5684,7 @@
       <c r="Q55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R55" s="26" t="s">
+      <c r="R55" s="27" t="s">
         <v>228</v>
       </c>
       <c r="S55" s="7"/>
@@ -5688,7 +5692,7 @@
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X55" s="16" t="s">
         <v>243</v>
@@ -5720,7 +5724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>48</v>
       </c>
@@ -5740,37 +5744,35 @@
       <c r="G56" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="I56" s="24" t="s">
+      <c r="H56" s="25" t="s">
         <v>246</v>
       </c>
+      <c r="I56" s="17"/>
       <c r="J56" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R56" s="26" t="s">
-        <v>65</v>
+      <c r="R56" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X56" s="16" t="s">
         <v>243</v>
@@ -5800,7 +5802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>49</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>40</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>247</v>
@@ -5831,20 +5833,20 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
@@ -5852,15 +5854,15 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD57" s="19" t="n">
+        <v>183</v>
+      </c>
+      <c r="AD57" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH57" s="7" t="s">
         <v>213</v>
@@ -5872,11 +5874,11 @@
         <v>49</v>
       </c>
       <c r="AK57" s="7"/>
-      <c r="AL57" s="23" t="n">
+      <c r="AL57" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>50</v>
       </c>
@@ -5889,13 +5891,13 @@
       <c r="D58" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="28" t="s">
         <v>253</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -5940,7 +5942,7 @@
       </c>
       <c r="AL58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>51</v>
       </c>
@@ -5953,13 +5955,13 @@
       <c r="D59" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="28" t="s">
         <v>260</v>
       </c>
       <c r="H59" s="7" t="s">
@@ -5986,7 +5988,7 @@
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X59" s="16" t="s">
         <v>264</v>
@@ -6008,7 +6010,7 @@
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>52</v>
       </c>
@@ -6021,13 +6023,13 @@
       <c r="D60" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="28" t="s">
         <v>267</v>
       </c>
       <c r="H60" s="7" t="s">
@@ -6074,7 +6076,7 @@
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>54</v>
       </c>
@@ -6087,13 +6089,13 @@
       <c r="D61" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="28" t="s">
         <v>274</v>
       </c>
       <c r="H61" s="7" t="s">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="273">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -967,6 +968,15 @@
 Energy Rack
 Energy Other
 Promo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1330,49 +1340,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF60"/>
+  <dimension ref="A1:AMF61"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AE50" activeCellId="0" sqref="AE50:AF50"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.2307692307692"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="93.085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="83.3400809716599"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -6087,8 +6097,68 @@
       <c r="AK60" s="9"/>
       <c r="AL60" s="9"/>
     </row>
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>313</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9" t="n">
+        <v>313</v>
+      </c>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL60"/>
+  <autoFilter ref="A1:AL61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,19 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -968,15 +967,6 @@
 Energy Rack
 Energy Other
 Promo Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1340,49 +1330,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF61"/>
+  <dimension ref="A1:AMF60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AE50" activeCellId="0" sqref="AE50:AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="93.085020242915"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.2307692307692"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -6097,68 +6087,8 @@
       <c r="AK60" s="9"/>
       <c r="AL60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
-        <v>313</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="12"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
-      <c r="AI61" s="9"/>
-      <c r="AJ61" s="9" t="n">
-        <v>313</v>
-      </c>
-      <c r="AK61" s="9"/>
-      <c r="AL61" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL61"/>
+  <autoFilter ref="A1:AL60"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="273">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -967,6 +968,15 @@
 Energy Rack
 Energy Other
 Promo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,6 +1259,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1330,49 +1344,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF60"/>
+  <dimension ref="1:61"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AE50" activeCellId="0" sqref="AE50:AF50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.2307692307692"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="93.085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="83.3400809716599"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -6087,8 +6101,69 @@
       <c r="AK60" s="9"/>
       <c r="AL60" s="9"/>
     </row>
+    <row r="61" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>313</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9" t="n">
+        <v>313</v>
+      </c>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AMJ61" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL60"/>
+  <autoFilter ref="A1:AL61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98155021-E399-4AB8-946E-D7CA6AB68B60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF3014-9E23-4102-9329-2485476777FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>Sorting</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Activation, Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -834,6 +831,12 @@
   </si>
   <si>
     <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1297,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,11 +1623,11 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1659,10 +1662,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>51</v>
@@ -1674,10 +1677,10 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="3" t="s">
@@ -1692,11 +1695,11 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1731,10 +1734,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>51</v>
@@ -1746,10 +1749,10 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="3" t="s">
@@ -1764,11 +1767,11 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1803,10 +1806,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>51</v>
@@ -1818,10 +1821,10 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="3" t="s">
@@ -1836,11 +1839,11 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD7" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1875,10 +1878,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>51</v>
@@ -1890,10 +1893,10 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="3" t="s">
@@ -1908,11 +1911,11 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD8" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1947,10 +1950,10 @@
         <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>51</v>
@@ -1962,10 +1965,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="3" t="s">
@@ -1980,11 +1983,11 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2019,10 +2022,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>51</v>
@@ -2034,7 +2037,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="3">
         <v>5449000064110</v>
@@ -2052,11 +2055,11 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2091,10 +2094,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>51</v>
@@ -2106,10 +2109,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="3" t="s">
@@ -2124,11 +2127,11 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD11" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2163,10 +2166,10 @@
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>51</v>
@@ -2178,10 +2181,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="3" t="s">
@@ -2196,11 +2199,11 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2235,10 +2238,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>51</v>
@@ -2250,7 +2253,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="3">
         <v>42099697</v>
@@ -2268,11 +2271,11 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2304,13 +2307,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
@@ -2362,13 +2365,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>51</v>
@@ -2380,10 +2383,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="3" t="s">
@@ -2398,11 +2401,11 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2434,13 +2437,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>47</v>
@@ -2472,7 +2475,7 @@
         <v>17</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL16" s="3">
         <v>300</v>
@@ -2492,13 +2495,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>51</v>
@@ -2510,10 +2513,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="3" t="s">
@@ -2528,11 +2531,11 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2564,13 +2567,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>51</v>
@@ -2582,7 +2585,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N18" s="3">
         <v>5060335632906</v>
@@ -2600,11 +2603,11 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2636,13 +2639,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>47</v>
@@ -2674,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL19" s="3">
         <v>300</v>
@@ -2694,13 +2697,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>51</v>
@@ -2712,10 +2715,10 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="3" t="s">
@@ -2730,11 +2733,11 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD20" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2766,13 +2769,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>51</v>
@@ -2784,10 +2787,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="3" t="s">
@@ -2802,11 +2805,11 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2838,13 +2841,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>47</v>
@@ -2876,7 +2879,7 @@
         <v>23</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL22" s="3">
         <v>300</v>
@@ -2896,13 +2899,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>51</v>
@@ -2914,10 +2917,10 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="3" t="s">
@@ -2932,11 +2935,11 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD23" s="6">
         <v>1.788E-2</v>
@@ -2968,13 +2971,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>51</v>
@@ -2986,10 +2989,10 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="3" t="s">
@@ -3004,11 +3007,11 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD24" s="6">
         <v>1.788E-2</v>
@@ -3040,13 +3043,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>51</v>
@@ -3058,10 +3061,10 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="3" t="s">
@@ -3076,11 +3079,11 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="6">
         <v>1.788E-2</v>
@@ -3112,13 +3115,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>51</v>
@@ -3130,10 +3133,10 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="3" t="s">
@@ -3148,11 +3151,11 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD26" s="6">
         <v>1.788E-2</v>
@@ -3184,13 +3187,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>51</v>
@@ -3202,10 +3205,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="3" t="s">
@@ -3220,11 +3223,11 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="6">
         <v>1.788E-2</v>
@@ -3256,13 +3259,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>51</v>
@@ -3274,10 +3277,10 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="3" t="s">
@@ -3292,11 +3295,11 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD28" s="6">
         <v>1.2999999999999999E-2</v>
@@ -3328,13 +3331,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>51</v>
@@ -3346,10 +3349,10 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="3" t="s">
@@ -3364,11 +3367,11 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD29" s="6">
         <v>1.2999999999999999E-2</v>
@@ -3401,10 +3404,10 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>40</v>
@@ -3452,10 +3455,10 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>40</v>
@@ -3504,16 +3507,16 @@
         <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="H32" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3">
@@ -3529,13 +3532,13 @@
       </c>
       <c r="R32" s="4"/>
       <c r="W32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD32" s="6">
         <v>0.15</v>
@@ -3549,7 +3552,7 @@
         <v>32</v>
       </c>
       <c r="AK32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL32" s="3">
         <v>303</v>
@@ -3569,13 +3572,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>51</v>
@@ -3587,26 +3590,26 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD33" s="4"/>
       <c r="AG33" s="4"/>
@@ -3636,16 +3639,16 @@
         <v>40</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="3">
@@ -3661,13 +3664,13 @@
       </c>
       <c r="R34" s="4"/>
       <c r="W34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD34" s="4"/>
       <c r="AG34" s="4"/>
@@ -3679,7 +3682,7 @@
         <v>34</v>
       </c>
       <c r="AK34" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL34" s="3">
         <v>32</v>
@@ -3699,23 +3702,23 @@
         <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="3">
         <v>4607042434877</v>
@@ -3728,18 +3731,18 @@
         <v>55</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI35" s="3">
         <v>4</v>
@@ -3766,23 +3769,23 @@
         <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N36" s="3">
         <v>4607042434891</v>
@@ -3795,18 +3798,18 @@
         <v>55</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI36" s="3">
         <v>4</v>
@@ -3834,10 +3837,10 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>40</v>
@@ -3866,7 +3869,7 @@
         <v>310</v>
       </c>
       <c r="AK37" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL37" s="4"/>
     </row>
@@ -3885,10 +3888,10 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>40</v>
@@ -3937,16 +3940,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3956,7 +3959,7 @@
       <c r="N39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R39" s="4"/>
       <c r="W39" s="4"/>
@@ -3964,14 +3967,14 @@
       <c r="Y39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD39" s="6">
         <v>0.24</v>
       </c>
       <c r="AG39" s="4"/>
       <c r="AH39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI39" s="3">
         <v>2</v>
@@ -3980,7 +3983,7 @@
         <v>36</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL39" s="3">
         <v>311</v>
@@ -4000,16 +4003,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3">
@@ -4020,30 +4023,30 @@
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W40" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="X40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD40" s="4"/>
       <c r="AG40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH40" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="AH40" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="AI40" s="3">
         <v>3</v>
@@ -4070,16 +4073,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="3">
@@ -4088,24 +4091,24 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD41" s="4"/>
       <c r="AG41" s="4"/>
@@ -4136,10 +4139,10 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>40</v>
@@ -4168,7 +4171,7 @@
         <v>312</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL42" s="3">
         <v>310</v>
@@ -4188,16 +4191,16 @@
         <v>40</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="3">
@@ -4207,32 +4210,32 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="X43" s="3" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD43" s="6">
         <v>0.04</v>
       </c>
       <c r="AG43" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI43" s="3">
         <v>2</v>
@@ -4259,16 +4262,16 @@
         <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -4279,32 +4282,32 @@
         <v>15</v>
       </c>
       <c r="M44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W44" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="X44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD44" s="6">
         <v>0.04</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI44" s="3">
         <v>2</v>
@@ -4331,13 +4334,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>47</v>
@@ -4348,25 +4351,25 @@
       <c r="N45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R45" s="4"/>
       <c r="W45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD45" s="6">
         <v>0.04</v>
       </c>
       <c r="AG45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI45" s="3">
         <v>2</v>
@@ -4375,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="AK45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL45" s="3">
         <v>312</v>
@@ -4396,49 +4399,49 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="3">
         <v>0.4</v>
       </c>
       <c r="M46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="P46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD46" s="4"/>
       <c r="AG46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI46" s="3">
         <v>3</v>
@@ -4466,13 +4469,13 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="3">
@@ -4482,23 +4485,23 @@
       <c r="N47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R47" s="4"/>
       <c r="W47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD47" s="4"/>
       <c r="AG47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI47" s="3">
         <v>3</v>
@@ -4507,7 +4510,7 @@
         <v>45</v>
       </c>
       <c r="AK47" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL47" s="3">
         <v>42</v>
@@ -4528,10 +4531,10 @@
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>51</v>
@@ -4541,38 +4544,38 @@
         <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="P48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD48" s="4"/>
       <c r="AG48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI48" s="3">
         <v>4</v>
@@ -4600,10 +4603,10 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>51</v>
@@ -4613,38 +4616,38 @@
         <v>4</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD49" s="4"/>
       <c r="AG49" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI49" s="3">
         <v>4</v>
@@ -4672,45 +4675,45 @@
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="3">
         <v>2</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="X50" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD50" s="4"/>
       <c r="AG50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI50" s="3">
         <v>3</v>
@@ -4737,39 +4740,39 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="I51" s="4"/>
       <c r="N51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="W51" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="X51" s="4"/>
       <c r="AC51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD51" s="6">
         <v>0.04</v>
       </c>
       <c r="AG51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI51" s="3">
         <v>2</v>
@@ -4793,26 +4796,26 @@
         <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="N52" s="4"/>
       <c r="R52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -4820,7 +4823,7 @@
         <v>50</v>
       </c>
       <c r="AK52" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4834,34 +4837,34 @@
         <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="R53" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="W53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X53" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ53" s="3">
         <v>51</v>
@@ -4878,31 +4881,31 @@
         <v>39</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="R54" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="X54" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="AJ54" s="3">
         <v>52</v>
@@ -4919,31 +4922,31 @@
         <v>39</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="R55" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X55" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ55" s="3">
         <v>54</v>
@@ -4960,22 +4963,22 @@
         <v>39</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="R56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ56" s="3">
         <v>313</v>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF3014-9E23-4102-9329-2485476777FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA25A10-CFFD-4E74-AEE5-5DDAD558A172}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
+    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$56</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$56</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="262">
   <si>
     <t>Sorting</t>
   </si>
@@ -838,6 +838,24 @@
   <si>
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
 </sst>
 </file>
 
@@ -846,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -862,8 +880,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +909,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -885,11 +924,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,6 +965,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,59 +1355,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AMM56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="3"/>
-    <col min="2" max="2" width="13.33203125" style="3"/>
-    <col min="3" max="3" width="25.88671875" style="3"/>
-    <col min="4" max="4" width="12.77734375" style="3"/>
-    <col min="5" max="5" width="18.44140625" style="3"/>
+    <col min="1" max="1" width="11.85546875" style="3"/>
+    <col min="2" max="2" width="13.28515625" style="3"/>
+    <col min="3" max="3" width="25.85546875" style="3"/>
+    <col min="4" max="4" width="12.7109375" style="3"/>
+    <col min="5" max="5" width="18.42578125" style="3"/>
     <col min="6" max="6" width="55" style="3"/>
-    <col min="7" max="7" width="77.44140625" style="3"/>
-    <col min="8" max="8" width="50.44140625" style="3"/>
-    <col min="9" max="9" width="18.5546875" style="3"/>
-    <col min="10" max="10" width="10" style="3"/>
-    <col min="11" max="11" width="15.33203125" style="3"/>
-    <col min="12" max="12" width="15.44140625" style="3"/>
-    <col min="13" max="13" width="32.21875" style="3"/>
-    <col min="14" max="14" width="34" style="3"/>
-    <col min="15" max="15" width="22.44140625" style="3"/>
-    <col min="16" max="16" width="10.88671875" style="3"/>
-    <col min="17" max="17" width="21.44140625" style="3"/>
-    <col min="18" max="18" width="15.88671875" style="3"/>
-    <col min="19" max="19" width="8" style="3"/>
-    <col min="20" max="20" width="16.6640625" style="3"/>
-    <col min="21" max="21" width="20.77734375" style="3"/>
-    <col min="22" max="22" width="26.109375" style="3"/>
-    <col min="23" max="23" width="25.88671875" style="3"/>
-    <col min="24" max="24" width="57.44140625" style="3"/>
-    <col min="25" max="25" width="28.77734375" style="3"/>
-    <col min="26" max="26" width="29.88671875" style="3"/>
-    <col min="27" max="27" width="30.77734375" style="3"/>
-    <col min="28" max="28" width="18.33203125" style="3"/>
-    <col min="29" max="29" width="18.77734375" style="3"/>
-    <col min="30" max="30" width="15.44140625" style="6"/>
-    <col min="31" max="31" width="14.6640625" style="3"/>
-    <col min="32" max="32" width="14.88671875" style="3"/>
-    <col min="33" max="33" width="26.21875" style="3"/>
-    <col min="34" max="34" width="99.109375" style="3"/>
-    <col min="35" max="35" width="8.6640625" style="3"/>
-    <col min="36" max="36" width="10" style="3"/>
-    <col min="37" max="37" width="12.44140625" style="3"/>
-    <col min="38" max="38" width="10.33203125" style="3"/>
-    <col min="39" max="1025" width="10.5546875" style="3"/>
-    <col min="1026" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="77.42578125" style="3"/>
+    <col min="8" max="8" width="50.42578125" style="3"/>
+    <col min="9" max="9" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="3"/>
+    <col min="12" max="12" width="10" style="3"/>
+    <col min="13" max="13" width="15.28515625" style="3"/>
+    <col min="14" max="14" width="15.42578125" style="3"/>
+    <col min="15" max="15" width="32.28515625" style="3"/>
+    <col min="16" max="16" width="34" style="3"/>
+    <col min="17" max="17" width="22.42578125" style="3"/>
+    <col min="18" max="18" width="10.85546875" style="3"/>
+    <col min="19" max="19" width="21.42578125" style="3"/>
+    <col min="20" max="20" width="15.85546875" style="3"/>
+    <col min="21" max="21" width="8" style="3"/>
+    <col min="22" max="22" width="16.7109375" style="3"/>
+    <col min="23" max="23" width="20.7109375" style="3"/>
+    <col min="24" max="24" width="26.140625" style="3"/>
+    <col min="25" max="25" width="25.85546875" style="3"/>
+    <col min="26" max="26" width="57.42578125" style="3"/>
+    <col min="27" max="27" width="28.7109375" style="3"/>
+    <col min="28" max="28" width="29.85546875" style="3"/>
+    <col min="29" max="29" width="30.7109375" style="3"/>
+    <col min="30" max="30" width="18.28515625" style="3"/>
+    <col min="31" max="31" width="18.7109375" style="3"/>
+    <col min="32" max="32" width="15.42578125" style="6"/>
+    <col min="33" max="33" width="14.7109375" style="3"/>
+    <col min="34" max="34" width="14.85546875" style="3"/>
+    <col min="35" max="35" width="26.28515625" style="3"/>
+    <col min="36" max="36" width="99.140625" style="3"/>
+    <col min="37" max="37" width="8.7109375" style="3"/>
+    <col min="38" max="38" width="10" style="3"/>
+    <col min="39" max="39" width="12.42578125" style="3"/>
+    <col min="40" max="40" width="10.28515625" style="3"/>
+    <col min="41" max="1027" width="10.5703125" style="3"/>
+    <col min="1028" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,98 +1434,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1486,36 +1554,36 @@
       <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="3">
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="3">
         <v>1</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AL2" s="3">
         <v>300</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1540,40 +1608,46 @@
       <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="3" t="s">
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="3">
+      <c r="AF3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="3">
         <v>2</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AL3" s="3">
         <v>1</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AN3" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1598,54 +1672,54 @@
       <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3">
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="4"/>
+      <c r="S4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AF4" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="3">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="3">
         <v>3</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AL4" s="3">
         <v>2</v>
       </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="3">
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1670,54 +1744,54 @@
       <c r="H5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3">
+      <c r="K5" s="4"/>
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AF5" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="3">
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="3">
         <v>3</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AL5" s="3">
         <v>3</v>
       </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="3">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1742,54 +1816,54 @@
       <c r="H6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3">
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AF6" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="3">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="3">
         <v>3</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AL6" s="3">
         <v>4</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="3">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1814,54 +1888,54 @@
       <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="3">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="3">
         <v>3</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AL7" s="3">
         <v>7</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="3">
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1886,54 +1960,54 @@
       <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3">
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AF8" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="3">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="3">
         <v>3</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AL8" s="3">
         <v>8</v>
       </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="3">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1958,54 +2032,54 @@
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3">
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AF9" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="3">
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="3">
         <v>3</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AL9" s="3">
         <v>9</v>
       </c>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="3">
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2030,54 +2104,54 @@
       <c r="H10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3">
+      <c r="K10" s="4"/>
+      <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5449000064110</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="3">
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="3">
         <v>3</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AL10" s="3">
         <v>10</v>
       </c>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="3">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2102,54 +2176,54 @@
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3">
+      <c r="K11" s="4"/>
+      <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AF11" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="3">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="3">
         <v>3</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AL11" s="3">
         <v>12</v>
       </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="3">
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2174,54 +2248,54 @@
       <c r="H12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3">
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AF12" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="3">
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="3">
         <v>3</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AL12" s="3">
         <v>11</v>
       </c>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="3">
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2246,54 +2320,54 @@
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3">
+      <c r="K13" s="4"/>
+      <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="3">
+      <c r="P13" s="3">
         <v>42099697</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AF13" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="3">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="3">
         <v>3</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AL13" s="3">
         <v>603</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="3">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -2318,40 +2392,46 @@
       <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="3" t="s">
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="3">
+      <c r="AF14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="3">
         <v>2</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AL14" s="3">
         <v>15</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AM14" s="3">
         <v>16</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AN14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>18</v>
       </c>
@@ -2376,54 +2456,54 @@
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3">
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="4"/>
+      <c r="S15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AF15" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="3">
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="3">
         <v>3</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AL15" s="3">
         <v>16</v>
       </c>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="3">
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>19</v>
       </c>
@@ -2448,40 +2528,46 @@
       <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="3" t="s">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="3">
+      <c r="AF16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="3">
         <v>2</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AL16" s="3">
         <v>17</v>
       </c>
-      <c r="AK16" s="5" t="s">
+      <c r="AM16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AN16" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -2506,54 +2592,54 @@
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3">
+      <c r="K17" s="4"/>
+      <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AF17" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="3">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="3">
         <v>3</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AL17" s="3">
         <v>18</v>
       </c>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="3">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>21</v>
       </c>
@@ -2578,54 +2664,54 @@
       <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3">
+      <c r="K18" s="4"/>
+      <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5060335632906</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AF18" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="3">
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="3">
         <v>3</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AL18" s="3">
         <v>360</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="3">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>23</v>
       </c>
@@ -2650,40 +2736,46 @@
       <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="3" t="s">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="3">
+      <c r="AF19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="3">
         <v>2</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AL19" s="3">
         <v>20</v>
       </c>
-      <c r="AK19" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AN19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>24</v>
       </c>
@@ -2708,54 +2800,54 @@
       <c r="H20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3">
+      <c r="K20" s="4"/>
+      <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="4"/>
+      <c r="S20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AF20" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="3">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="3">
         <v>3</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AL20" s="3">
         <v>21</v>
       </c>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="3">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>25</v>
       </c>
@@ -2780,54 +2872,54 @@
       <c r="H21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3">
+      <c r="K21" s="4"/>
+      <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AF21" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="3">
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="3">
         <v>3</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AL21" s="3">
         <v>22</v>
       </c>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="3">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>26</v>
       </c>
@@ -2852,40 +2944,46 @@
       <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="3" t="s">
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="3">
+      <c r="AF22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="3">
         <v>2</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AL22" s="3">
         <v>23</v>
       </c>
-      <c r="AK22" s="5" t="s">
+      <c r="AM22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AN22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>27</v>
       </c>
@@ -2910,54 +3008,54 @@
       <c r="H23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3">
+      <c r="K23" s="4"/>
+      <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AF23" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="3">
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="3">
         <v>3</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AL23" s="3">
         <v>24</v>
       </c>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="3">
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -2982,54 +3080,54 @@
       <c r="H24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3">
+      <c r="K24" s="4"/>
+      <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="3" t="s">
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AF24" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="3">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="3">
         <v>3</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AL24" s="3">
         <v>25</v>
       </c>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="3">
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>29</v>
       </c>
@@ -3054,54 +3152,54 @@
       <c r="H25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3">
+      <c r="K25" s="4"/>
+      <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="3" t="s">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="3" t="s">
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="3">
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="3">
         <v>3</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AL25" s="3">
         <v>26</v>
       </c>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="3">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>30</v>
       </c>
@@ -3126,54 +3224,54 @@
       <c r="H26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3">
+      <c r="K26" s="4"/>
+      <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="3" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="3" t="s">
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AF26" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="3">
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="3">
         <v>3</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AL26" s="3">
         <v>27</v>
       </c>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="3">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>31</v>
       </c>
@@ -3198,54 +3296,54 @@
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3">
+      <c r="K27" s="4"/>
+      <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="4"/>
+      <c r="S27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="3" t="s">
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AF27" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="3">
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="3">
         <v>3</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AL27" s="3">
         <v>28</v>
       </c>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="3">
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>32</v>
       </c>
@@ -3270,54 +3368,54 @@
       <c r="H28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3">
+      <c r="K28" s="4"/>
+      <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="4"/>
+      <c r="S28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="3" t="s">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AF28" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="3">
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="3">
         <v>3</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AL28" s="3">
         <v>31</v>
       </c>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="3">
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>33</v>
       </c>
@@ -3342,54 +3440,54 @@
       <c r="H29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3">
+      <c r="K29" s="4"/>
+      <c r="L29" s="3">
         <v>1</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="4"/>
+      <c r="S29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AF29" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="3">
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="3">
         <v>3</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AL29" s="3">
         <v>30</v>
       </c>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="3">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>35</v>
       </c>
@@ -3412,35 +3510,35 @@
       <c r="H30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
       <c r="AD30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="3">
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="3">
         <v>1</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AL30" s="3">
         <v>301</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AM30" s="3">
         <v>303</v>
       </c>
-      <c r="AL30" s="4"/>
-    </row>
-    <row r="31" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN30" s="4"/>
+    </row>
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>36</v>
       </c>
@@ -3463,37 +3561,37 @@
       <c r="H31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
       <c r="AD31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="3">
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="3">
         <v>1</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AL31" s="3">
         <v>303</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AM31" s="3">
         <v>32</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AN31" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>37</v>
       </c>
@@ -3518,47 +3616,47 @@
       <c r="H32" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3">
+      <c r="K32" s="4"/>
+      <c r="L32" s="3">
         <v>2</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="4"/>
+      <c r="S32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="W32" s="3" t="s">
+      <c r="T32" s="4"/>
+      <c r="Y32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="3" t="s">
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AF32" s="6">
         <v>0.15</v>
       </c>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="3">
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="3">
         <v>2</v>
       </c>
-      <c r="AJ32" s="3">
+      <c r="AL32" s="3">
         <v>32</v>
       </c>
-      <c r="AK32" s="5" t="s">
+      <c r="AM32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AL32" s="3">
+      <c r="AN32" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>38</v>
       </c>
@@ -3583,49 +3681,49 @@
       <c r="H33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3">
+      <c r="K33" s="4"/>
+      <c r="L33" s="3">
         <v>12</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="4"/>
+      <c r="S33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="3" t="s">
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="3">
+      <c r="AF33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="3">
         <v>3</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AL33" s="3">
         <v>33</v>
       </c>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="3">
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>39</v>
       </c>
@@ -3650,45 +3748,45 @@
       <c r="H34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="4"/>
+      <c r="S34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="W34" s="3" t="s">
+      <c r="T34" s="4"/>
+      <c r="Y34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="3" t="s">
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="3">
+      <c r="AF34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="3">
         <v>3</v>
       </c>
-      <c r="AJ34" s="3">
+      <c r="AL34" s="3">
         <v>34</v>
       </c>
-      <c r="AK34" s="5" t="s">
+      <c r="AM34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AN34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>40</v>
       </c>
@@ -3713,49 +3811,49 @@
       <c r="H35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4607042434877</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="4"/>
+      <c r="S35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="3" t="s">
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="3" t="s">
+      <c r="AF35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AK35" s="3">
         <v>4</v>
       </c>
-      <c r="AJ35" s="3">
+      <c r="AL35" s="3">
         <v>57</v>
       </c>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="3">
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41</v>
       </c>
@@ -3780,49 +3878,49 @@
       <c r="H36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="3">
+      <c r="P36" s="3">
         <v>4607042434891</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="3" t="s">
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="3" t="s">
+      <c r="AF36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AK36" s="3">
         <v>4</v>
       </c>
-      <c r="AJ36" s="3">
+      <c r="AL36" s="3">
         <v>35</v>
       </c>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="3">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42</v>
       </c>
@@ -3845,35 +3943,35 @@
       <c r="H37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
       <c r="AD37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="3">
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="3">
         <v>1</v>
       </c>
-      <c r="AJ37" s="3">
+      <c r="AL37" s="3">
         <v>310</v>
       </c>
-      <c r="AK37" s="5" t="s">
+      <c r="AM37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AL37" s="4"/>
-    </row>
-    <row r="38" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN37" s="4"/>
+    </row>
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43</v>
       </c>
@@ -3896,37 +3994,37 @@
       <c r="H38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="3">
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="3">
         <v>1</v>
       </c>
-      <c r="AJ38" s="3">
+      <c r="AL38" s="3">
         <v>311</v>
       </c>
-      <c r="AK38" s="3">
+      <c r="AM38" s="3">
         <v>36</v>
       </c>
-      <c r="AL38" s="3">
+      <c r="AN38" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44</v>
       </c>
@@ -3951,45 +4049,45 @@
       <c r="H39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="4"/>
+      <c r="S39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="T39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="3" t="s">
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AD39" s="6">
+      <c r="AF39" s="6">
         <v>0.24</v>
       </c>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="3" t="s">
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AK39" s="3">
         <v>2</v>
       </c>
-      <c r="AJ39" s="3">
+      <c r="AL39" s="3">
         <v>36</v>
       </c>
-      <c r="AK39" s="5" t="s">
+      <c r="AM39" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="AL39" s="3">
+      <c r="AN39" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45</v>
       </c>
@@ -4014,52 +4112,52 @@
       <c r="H40" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3">
+      <c r="K40" s="4"/>
+      <c r="L40" s="3">
         <v>0.5</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M40" s="3">
         <v>30</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="4"/>
+      <c r="O40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="3" t="s">
+      <c r="Z40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="4"/>
-      <c r="AG40" s="3" t="s">
+      <c r="AF40" s="4"/>
+      <c r="AI40" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AH40" s="3" t="s">
+      <c r="AJ40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AK40" s="3">
         <v>3</v>
       </c>
-      <c r="AJ40" s="3">
+      <c r="AL40" s="3">
         <v>37</v>
       </c>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="3">
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>47</v>
       </c>
@@ -4084,47 +4182,47 @@
       <c r="H41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="3">
+      <c r="K41" s="4"/>
+      <c r="L41" s="3">
         <v>0.01</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="3" t="s">
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="3">
+      <c r="AF41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="3">
         <v>3</v>
       </c>
-      <c r="AJ41" s="3">
-        <v>39</v>
-      </c>
-      <c r="AK41" s="4"/>
       <c r="AL41" s="3">
+        <v>39</v>
+      </c>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>48</v>
       </c>
@@ -4147,37 +4245,37 @@
       <c r="H42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
       <c r="AD42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="3">
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="3">
         <v>1</v>
       </c>
-      <c r="AJ42" s="3">
+      <c r="AL42" s="3">
         <v>312</v>
       </c>
-      <c r="AK42" s="5" t="s">
+      <c r="AM42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AN42" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>49</v>
       </c>
@@ -4202,53 +4300,53 @@
       <c r="H43" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="3">
+      <c r="K43" s="4"/>
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Z43" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="Y43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="3" t="s">
+      <c r="AA43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="6">
+      <c r="AF43" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG43" s="3" t="s">
+      <c r="AI43" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH43" s="3" t="s">
+      <c r="AJ43" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI43" s="3">
+      <c r="AK43" s="3">
         <v>2</v>
       </c>
-      <c r="AJ43" s="3">
-        <v>40</v>
-      </c>
-      <c r="AK43" s="4"/>
       <c r="AL43" s="3">
+        <v>40</v>
+      </c>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>50</v>
       </c>
@@ -4273,54 +4371,54 @@
       <c r="H44" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>15</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="3" t="s">
+      <c r="Z44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="6">
+      <c r="AF44" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG44" s="3" t="s">
+      <c r="AI44" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH44" s="3" t="s">
+      <c r="AJ44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI44" s="3">
+      <c r="AK44" s="3">
         <v>2</v>
       </c>
-      <c r="AJ44" s="3">
+      <c r="AL44" s="3">
         <v>41</v>
       </c>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="3">
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>51</v>
       </c>
@@ -4345,46 +4443,46 @@
       <c r="H45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="4"/>
+      <c r="S45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="W45" s="3" t="s">
+      <c r="T45" s="4"/>
+      <c r="Y45" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="3" t="s">
+      <c r="Z45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AF45" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG45" s="3" t="s">
+      <c r="AI45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH45" s="3" t="s">
+      <c r="AJ45" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI45" s="3">
+      <c r="AK45" s="3">
         <v>2</v>
       </c>
-      <c r="AJ45" s="3">
+      <c r="AL45" s="3">
         <v>42</v>
       </c>
-      <c r="AK45" s="5" t="s">
+      <c r="AM45" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AL45" s="3">
+      <c r="AN45" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>52</v>
       </c>
@@ -4407,54 +4505,54 @@
       <c r="H46" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="3">
+      <c r="K46" s="4"/>
+      <c r="L46" s="3">
         <v>0.4</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="3" t="s">
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD46" s="4"/>
-      <c r="AG46" s="3" t="s">
+      <c r="AF46" s="4"/>
+      <c r="AI46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH46" s="3" t="s">
+      <c r="AJ46" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AK46" s="3">
         <v>3</v>
       </c>
-      <c r="AJ46" s="3">
+      <c r="AL46" s="3">
         <v>43</v>
       </c>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="3">
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>53</v>
       </c>
@@ -4477,46 +4575,46 @@
       <c r="H47" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="3">
+      <c r="K47" s="4"/>
+      <c r="L47" s="3">
         <v>2</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="4"/>
+      <c r="S47" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="W47" s="3" t="s">
+      <c r="T47" s="4"/>
+      <c r="Y47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="3" t="s">
+      <c r="Z47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD47" s="4"/>
-      <c r="AG47" s="3" t="s">
+      <c r="AF47" s="4"/>
+      <c r="AI47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH47" s="3" t="s">
+      <c r="AJ47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AK47" s="3">
         <v>3</v>
       </c>
-      <c r="AJ47" s="3">
+      <c r="AL47" s="3">
         <v>45</v>
       </c>
-      <c r="AK47" s="5" t="s">
+      <c r="AM47" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AL47" s="3">
+      <c r="AN47" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>54</v>
       </c>
@@ -4539,56 +4637,56 @@
       <c r="H48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="3">
+      <c r="K48" s="4"/>
+      <c r="L48" s="3">
         <v>4</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X48" s="5" t="s">
+      <c r="Z48" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AD48" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AE48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD48" s="4"/>
-      <c r="AG48" s="3" t="s">
+      <c r="AF48" s="4"/>
+      <c r="AI48" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH48" s="3" t="s">
+      <c r="AJ48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI48" s="3">
+      <c r="AK48" s="3">
         <v>4</v>
       </c>
-      <c r="AJ48" s="3">
+      <c r="AL48" s="3">
         <v>46</v>
       </c>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="3">
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>55</v>
       </c>
@@ -4611,56 +4709,56 @@
       <c r="H49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="3">
+      <c r="K49" s="4"/>
+      <c r="L49" s="3">
         <v>4</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X49" s="5" t="s">
+      <c r="Z49" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AD49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AE49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD49" s="4"/>
-      <c r="AG49" s="3" t="s">
+      <c r="AF49" s="4"/>
+      <c r="AI49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH49" s="3" t="s">
+      <c r="AJ49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI49" s="3">
+      <c r="AK49" s="3">
         <v>4</v>
       </c>
-      <c r="AJ49" s="3">
+      <c r="AL49" s="3">
         <v>47</v>
       </c>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="3">
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>56</v>
       </c>
@@ -4683,50 +4781,50 @@
       <c r="H50" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="3">
+      <c r="K50" s="4"/>
+      <c r="L50" s="3">
         <v>2</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="Y50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X50" s="5" t="s">
+      <c r="Z50" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AC50" s="3" t="s">
+      <c r="AE50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="4"/>
-      <c r="AG50" s="3" t="s">
+      <c r="AF50" s="4"/>
+      <c r="AI50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH50" s="3" t="s">
+      <c r="AJ50" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI50" s="3">
+      <c r="AK50" s="3">
         <v>3</v>
       </c>
-      <c r="AJ50" s="3">
+      <c r="AL50" s="3">
         <v>48</v>
       </c>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="3">
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>57</v>
       </c>
@@ -4751,41 +4849,41 @@
       <c r="H51" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="N51" s="3" t="s">
+      <c r="K51" s="4"/>
+      <c r="P51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W51" s="3" t="s">
+      <c r="Y51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X51" s="4"/>
-      <c r="AC51" s="3" t="s">
+      <c r="Z51" s="4"/>
+      <c r="AE51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AD51" s="6">
+      <c r="AF51" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG51" s="3" t="s">
+      <c r="AI51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH51" s="3" t="s">
+      <c r="AJ51" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AK51" s="3">
         <v>2</v>
       </c>
-      <c r="AJ51" s="3">
+      <c r="AL51" s="3">
         <v>49</v>
       </c>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="3">
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>58</v>
       </c>
@@ -4810,23 +4908,23 @@
       <c r="H52" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="R52" s="3" t="s">
+      <c r="P52" s="4"/>
+      <c r="T52" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="AJ52" s="3">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AL52" s="3">
         <v>50</v>
       </c>
-      <c r="AK52" s="5" t="s">
+      <c r="AM52" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>59</v>
       </c>
@@ -4851,26 +4949,26 @@
       <c r="H53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W53" s="3" t="s">
+      <c r="Y53" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="5" t="s">
+      <c r="Z53" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AJ53" s="3">
+      <c r="AL53" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>60</v>
       </c>
@@ -4895,23 +4993,23 @@
       <c r="H54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="X54" s="5" t="s">
+      <c r="Z54" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AJ54" s="3">
+      <c r="AL54" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>61</v>
       </c>
@@ -4936,23 +5034,23 @@
       <c r="H55" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="X55" s="5" t="s">
+      <c r="Z55" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AJ55" s="3">
+      <c r="AL55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>62</v>
       </c>
@@ -4974,18 +5072,18 @@
       <c r="H56" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AJ56" s="3">
+      <c r="AL56" s="3">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
